--- a/xlsx/世界_intext.xlsx
+++ b/xlsx/世界_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="359">
   <si>
     <t>世界</t>
   </si>
@@ -29,7 +29,7 @@
     <t>地球</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_世界</t>
+    <t>政策_政策_维基百科_世界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E5%AE%99</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E</t>
   </si>
   <si>
-    <t>人類</t>
+    <t>人类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%98%8E</t>
@@ -107,9 +107,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB</t>
   </si>
   <si>
-    <t>人类</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
   </si>
   <si>
@@ -221,7 +218,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%AA</t>
   </si>
   <si>
-    <t>冪</t>
+    <t>幂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E5%AD%A6</t>
@@ -257,21 +254,18 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A6%82%E6%B3%81</t>
   </si>
   <si>
-    <t>世界概況</t>
+    <t>世界概况</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A6%82%E5%86%B5</t>
   </si>
   <si>
-    <t>世界概况</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%94%BF%E5%8C%BA</t>
   </si>
   <si>
@@ -317,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>澳大利亞洲</t>
+    <t>澳大利亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
@@ -335,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BA%9E%E9%9D%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>歐亞非大陸</t>
+    <t>欧亚非大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -347,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>歐亞大陸</t>
+    <t>欧亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -365,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>超大陸</t>
+    <t>超大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%88%E7%93%A6%E9%82%A3%E5%A4%A7%E9%99%86</t>
@@ -383,109 +377,109 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A4%E5%8F%A4%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>盤古大陸</t>
+    <t>盘古大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%98%E8%AB%BE%E8%A5%BF%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>潘諾西亞大陸</t>
+    <t>潘诺西亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%BF%AA%E5%B0%BC%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>羅迪尼亞大陸</t>
+    <t>罗迪尼亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>哥倫比亞大陸</t>
+    <t>哥伦比亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E8%AB%BE%E8%98%AD%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>凱諾蘭大陸</t>
+    <t>凯诺兰大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A6%AE%E5%A8%9C%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>妮娜大陸</t>
+    <t>妮娜大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E7%88%BE%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>烏爾大陸</t>
+    <t>乌尔大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%B7%B4%E6%8B%89%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>瓦巴拉大陸</t>
+    <t>瓦巴拉大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%A5%B5%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>北極大陸</t>
+    <t>北极大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%93%A6%E9%9A%86%E5%B0%BC%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>阿瓦隆尼亞大陸</t>
+    <t>阿瓦隆尼亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%85%E7%9A%84%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>波羅的大陸</t>
+    <t>波罗的大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E6%A2%85%E5%88%A9%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>辛梅利亞大陸</t>
+    <t>辛梅利亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E5%85%8B%E6%8B%89%E9%80%9A</t>
   </si>
   <si>
-    <t>剛果克拉通</t>
+    <t>刚果克拉通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%BE%8E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>歐美大陸</t>
+    <t>欧美大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%96%A9%E5%85%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>哈薩克大陸</t>
+    <t>哈萨克大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>勞倫大陸</t>
+    <t>劳伦大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E5%8C%97%E9%99%B8%E5%A1%8A</t>
   </si>
   <si>
-    <t>華北陸塊</t>
+    <t>华北陆块</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>西伯利亞大陸</t>
+    <t>西伯利亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%AC%E5%AD%90%E5%85%8B%E6%8B%89%E9%80%9A</t>
@@ -497,13 +491,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E6%A5%B5%E5%85%8B%E6%8B%89%E9%80%9A</t>
   </si>
   <si>
-    <t>東南極克拉通</t>
+    <t>东南极克拉通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%AC%A1%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>印度次大陸</t>
+    <t>印度次大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B9%E6%B2%A1%E7%9A%84%E5%A4%A7%E9%99%86</t>
@@ -515,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E8%93%8B%E6%9C%97%E6%B5%B7%E5%8F%B0</t>
   </si>
   <si>
-    <t>凱爾蓋朗海台</t>
+    <t>凯尔盖朗海台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%85%B0%E5%A4%A7%E9%99%86</t>
@@ -527,25 +521,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E6%A5%B5%E7%9B%A4%E5%8F%A4%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>終極盤古大陸</t>
+    <t>终极盘古大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BE%8E%E8%A5%BF%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>阿美西亞大陸</t>
+    <t>阿美西亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%9B%A4%E5%8F%A4%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>新盤古大陸</t>
+    <t>新盘古大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%A7%86%E5%88%A9%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>雷姆利亞大陸</t>
+    <t>雷姆利亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%86%E5%A4%A7%E9%99%86</t>
@@ -557,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E7%9F%A5%E7%9A%84%E5%8D%97%E6%96%B9%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>未知的南方大陸</t>
+    <t>未知的南方大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%89%B9%E5%85%B0%E8%92%82%E6%96%AF</t>
@@ -635,13 +629,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%B3%B6%E5%BC%A7</t>
   </si>
   <si>
-    <t>東亞島弧</t>
+    <t>东亚岛弧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
-    <t>東印度</t>
+    <t>东印度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
@@ -743,13 +737,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E5%B9%B9%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴爾幹半島</t>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
   </si>
   <si>
-    <t>歐俄</t>
+    <t>欧俄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
@@ -827,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻里尼西亞</t>
+    <t>玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E5%9C%B0</t>
@@ -845,7 +839,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>環太平洋地區</t>
+    <t>环太平洋地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%A4%AA%E5%9C%B0%E5%8C%BA</t>
@@ -857,7 +851,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E5%9C%8B%E5%8D%94</t>
   </si>
   <si>
-    <t>獨立國家國協</t>
+    <t>独立国家国协</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B8%96%E7%95%8C</t>
@@ -917,25 +911,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>氣候</t>
+    <t>气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>熱帶</t>
+    <t>热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%A4%9A%E9%9B%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>赤道多雨氣候</t>
+    <t>赤道多雨气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E4%B9%BE%E6%BF%95%E5%AD%A3%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶乾濕季氣候</t>
+    <t>热带干湿季气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%B8%A6%E8%8D%89%E5%8E%9F%E6%B0%94%E5%80%99</t>
@@ -953,13 +947,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶季風氣候</t>
+    <t>热带季风气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>亞熱帶</t>
+    <t>亚热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%83%AD%E5%B8%A6%E6%B9%BF%E6%B6%A6%E6%B0%94%E5%80%99</t>
@@ -971,7 +965,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>副熱帶季風氣候</t>
+    <t>副热带季风气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6</t>
@@ -989,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B8%B6%E5%A4%A7%E9%99%B8%E6%80%A7%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>溫帶大陸性氣候</t>
+    <t>温带大陆性气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E5%BC%8F%E6%B0%94%E5%80%99</t>
@@ -1025,7 +1019,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極地氣候</t>
+    <t>极地气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E6%9E%81%E5%9C%B0%E5%A4%A7%E9%99%86%E6%80%A7%E6%B0%94%E5%80%99</t>
@@ -1043,19 +1037,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E5%86%B0%E5%8E%9F%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極地冰原氣候</t>
+    <t>极地冰原气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%9C%B0%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>高地氣候</t>
+    <t>高地气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%B0%E7%90%86%E5%88%86%E5%B8%83%E5%8D%80</t>
   </si>
   <si>
-    <t>生物地理分布區</t>
+    <t>生物地理分布区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8C%97%E7%95%8C</t>
@@ -1079,7 +1073,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B4%8B%E7%95%8C</t>
   </si>
   <si>
-    <t>東洋界</t>
+    <t>东洋界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%96%B0%E7%95%8C</t>
@@ -1874,7 +1868,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G15" t="n">
         <v>5</v>
@@ -1900,10 +1894,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1929,10 +1923,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1958,10 +1952,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1987,10 +1981,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -2016,10 +2010,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -2045,10 +2039,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2074,10 +2068,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2103,10 +2097,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2132,10 +2126,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>4</v>
@@ -2161,10 +2155,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -2190,10 +2184,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2219,10 +2213,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2248,10 +2242,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -2277,10 +2271,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -2306,10 +2300,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2335,10 +2329,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2364,10 +2358,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2393,10 +2387,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2422,10 +2416,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2451,10 +2445,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2480,10 +2474,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2509,10 +2503,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2538,10 +2532,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2567,10 +2561,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2596,10 +2590,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2625,10 +2619,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -2654,10 +2648,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2683,10 +2677,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2712,10 +2706,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2741,10 +2735,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2770,10 +2764,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2828,10 +2822,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2857,10 +2851,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>14</v>
@@ -2886,10 +2880,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2915,10 +2909,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2944,10 +2938,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G52" t="n">
         <v>3</v>
@@ -2973,10 +2967,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3002,10 +2996,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F54" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -3031,10 +3025,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" t="s">
         <v>49</v>
-      </c>
-      <c r="F55" t="s">
-        <v>50</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3060,10 +3054,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F56" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3089,10 +3083,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F57" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -3118,10 +3112,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F58" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3147,10 +3141,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F59" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -3176,10 +3170,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F60" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3205,10 +3199,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -3234,10 +3228,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F62" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G62" t="n">
         <v>14</v>
@@ -3263,10 +3257,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F63" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3292,10 +3286,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F64" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3321,10 +3315,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F65" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3350,10 +3344,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F66" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3379,10 +3373,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F67" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3408,10 +3402,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F68" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3437,10 +3431,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F69" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -3466,10 +3460,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F70" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3495,10 +3489,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F71" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3524,10 +3518,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F72" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3553,10 +3547,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F73" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3582,10 +3576,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F74" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3611,10 +3605,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F75" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3640,10 +3634,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F76" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3698,10 +3692,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F78" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3727,10 +3721,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F79" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3756,10 +3750,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F80" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3785,10 +3779,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F81" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3814,10 +3808,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F82" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3843,10 +3837,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F83" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3872,10 +3866,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F84" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3901,10 +3895,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F85" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3930,10 +3924,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F86" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3959,10 +3953,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F87" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3988,10 +3982,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F88" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4017,10 +4011,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F89" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4046,10 +4040,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F90" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4075,10 +4069,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F91" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4104,10 +4098,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F92" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4133,10 +4127,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F93" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4162,10 +4156,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F94" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4191,10 +4185,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F95" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4220,10 +4214,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F96" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4249,10 +4243,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F97" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4278,10 +4272,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F98" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4307,10 +4301,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F99" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4336,10 +4330,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F100" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4365,10 +4359,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F101" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4394,10 +4388,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F102" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4423,10 +4417,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F103" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4452,10 +4446,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F104" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4481,10 +4475,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F105" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -4510,10 +4504,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F106" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4539,10 +4533,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F107" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4568,10 +4562,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F108" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4597,10 +4591,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F109" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4626,10 +4620,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F110" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4655,10 +4649,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F111" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4684,10 +4678,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F112" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4713,10 +4707,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F113" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4742,10 +4736,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F114" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4771,10 +4765,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F115" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4800,10 +4794,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F116" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4829,10 +4823,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F117" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4858,10 +4852,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F118" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4887,10 +4881,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F119" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4916,10 +4910,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F120" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4945,10 +4939,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F121" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4974,10 +4968,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F122" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5003,10 +4997,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F123" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5032,10 +5026,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F124" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5061,10 +5055,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F125" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5090,10 +5084,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F126" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5119,10 +5113,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F127" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5148,10 +5142,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F128" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5177,10 +5171,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F129" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5206,10 +5200,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F130" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5235,10 +5229,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F131" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5264,10 +5258,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F132" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5293,10 +5287,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F133" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5322,10 +5316,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F134" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5351,10 +5345,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F135" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -5380,10 +5374,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F136" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -5409,10 +5403,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F137" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5438,10 +5432,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F138" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5467,10 +5461,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F139" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -5496,10 +5490,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F140" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5525,10 +5519,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F141" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5554,10 +5548,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F142" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5583,10 +5577,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F143" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5612,10 +5606,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F144" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5641,10 +5635,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F145" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5670,10 +5664,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F146" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5699,10 +5693,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F147" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5728,10 +5722,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F148" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5757,10 +5751,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F149" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G149" t="n">
         <v>3</v>
@@ -5786,10 +5780,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F150" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5815,10 +5809,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F151" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5844,10 +5838,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F152" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5873,10 +5867,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F153" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5902,10 +5896,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F154" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5931,10 +5925,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F155" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5960,10 +5954,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F156" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5989,10 +5983,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F157" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G157" t="n">
         <v>4</v>
@@ -6018,10 +6012,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F158" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6047,10 +6041,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F159" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6076,10 +6070,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F160" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6105,10 +6099,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F161" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6134,10 +6128,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F162" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6163,10 +6157,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F163" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6192,10 +6186,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F164" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6221,10 +6215,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F165" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G165" t="n">
         <v>10</v>
@@ -6250,10 +6244,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F166" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6279,10 +6273,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F167" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6308,10 +6302,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F168" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6337,10 +6331,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F169" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6366,10 +6360,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F170" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6395,10 +6389,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F171" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6424,10 +6418,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F172" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6453,10 +6447,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F173" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6482,10 +6476,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F174" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G174" t="n">
         <v>8</v>
@@ -6511,10 +6505,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F175" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6540,10 +6534,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F176" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6569,10 +6563,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F177" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6598,10 +6592,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F178" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6627,10 +6621,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F179" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6656,10 +6650,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F180" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6685,10 +6679,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F181" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -6714,10 +6708,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F182" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -6743,10 +6737,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F183" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6772,10 +6766,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F184" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6801,10 +6795,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F185" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6830,10 +6824,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F186" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6859,10 +6853,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F187" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6888,10 +6882,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F188" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -6917,10 +6911,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F189" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -6946,10 +6940,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F190" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -6975,10 +6969,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F191" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7004,10 +6998,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F192" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7033,10 +7027,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F193" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7062,10 +7056,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F194" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
